--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H2">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>118.24386808843</v>
+        <v>72.36658138501866</v>
       </c>
       <c r="R2">
-        <v>1064.19481279587</v>
+        <v>651.299232465168</v>
       </c>
       <c r="S2">
-        <v>0.1015796698791689</v>
+        <v>0.08870252885810061</v>
       </c>
       <c r="T2">
-        <v>0.1015796698791689</v>
+        <v>0.08870252885810061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H3">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>135.6111272725667</v>
+        <v>120.6980403727466</v>
       </c>
       <c r="R3">
-        <v>1220.5001454531</v>
+        <v>1086.28236335472</v>
       </c>
       <c r="S3">
-        <v>0.1164993480252798</v>
+        <v>0.147944274890069</v>
       </c>
       <c r="T3">
-        <v>0.1164993480252798</v>
+        <v>0.147944274890069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H4">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>15.06527662130666</v>
+        <v>13.06872202089067</v>
       </c>
       <c r="R4">
-        <v>135.58748959176</v>
+        <v>117.618498188016</v>
       </c>
       <c r="S4">
-        <v>0.01294211573564408</v>
+        <v>0.01601884005034032</v>
       </c>
       <c r="T4">
-        <v>0.01294211573564408</v>
+        <v>0.01601884005034032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H5">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>9.106202685906664</v>
+        <v>2.655759641770666</v>
       </c>
       <c r="R5">
-        <v>81.95582417315998</v>
+        <v>23.901836775936</v>
       </c>
       <c r="S5">
-        <v>0.007822858619572774</v>
+        <v>0.003255267718271818</v>
       </c>
       <c r="T5">
-        <v>0.007822858619572772</v>
+        <v>0.003255267718271817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>127.9747062325107</v>
+        <v>87.99919047297911</v>
       </c>
       <c r="R6">
-        <v>1151.772356092596</v>
+        <v>791.9927142568121</v>
       </c>
       <c r="S6">
-        <v>0.1099391336069972</v>
+        <v>0.1078640248444135</v>
       </c>
       <c r="T6">
-        <v>0.1099391336069972</v>
+        <v>0.1078640248444135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
         <v>146.7711979921644</v>
@@ -883,10 +883,10 @@
         <v>1320.94078192948</v>
       </c>
       <c r="S7">
-        <v>0.126086621495369</v>
+        <v>0.1799031566265634</v>
       </c>
       <c r="T7">
-        <v>0.1260866214953689</v>
+        <v>0.1799031566265634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>16.30506833962311</v>
+        <v>15.89182377202711</v>
       </c>
       <c r="R8">
-        <v>146.745615056608</v>
+        <v>143.026413948244</v>
       </c>
       <c r="S8">
-        <v>0.0140071826647074</v>
+        <v>0.01947922549009492</v>
       </c>
       <c r="T8">
-        <v>0.01400718266470739</v>
+        <v>0.01947922549009492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>9.855594479969778</v>
+        <v>3.229456112113777</v>
       </c>
       <c r="R9">
-        <v>88.70035031972799</v>
+        <v>29.065105009024</v>
       </c>
       <c r="S9">
-        <v>0.008466638058470692</v>
+        <v>0.003958469759081987</v>
       </c>
       <c r="T9">
-        <v>0.00846663805847069</v>
+        <v>0.003958469759081986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H10">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>208.5313292471103</v>
+        <v>78.31225206993743</v>
       </c>
       <c r="R10">
-        <v>1876.781963223993</v>
+        <v>704.8102686294369</v>
       </c>
       <c r="S10">
-        <v>0.1791428505074288</v>
+        <v>0.0959903682919384</v>
       </c>
       <c r="T10">
-        <v>0.1791428505074288</v>
+        <v>0.09599036829193838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H11">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>239.1597051755656</v>
+        <v>130.6146453392477</v>
       </c>
       <c r="R11">
-        <v>2152.43734658009</v>
+        <v>1175.53180805323</v>
       </c>
       <c r="S11">
-        <v>0.2054547461350381</v>
+        <v>0.1600994426675198</v>
       </c>
       <c r="T11">
-        <v>0.2054547461350381</v>
+        <v>0.1600994426675198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H12">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>26.56866871918488</v>
+        <v>14.14245406573544</v>
       </c>
       <c r="R12">
-        <v>239.118018472664</v>
+        <v>127.282086591619</v>
       </c>
       <c r="S12">
-        <v>0.02282432604120704</v>
+        <v>0.01733495511161401</v>
       </c>
       <c r="T12">
-        <v>0.02282432604120704</v>
+        <v>0.01733495511161401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H13">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>16.05942516245822</v>
+        <v>2.873958041447111</v>
       </c>
       <c r="R13">
-        <v>144.534826462124</v>
+        <v>25.865622373024</v>
       </c>
       <c r="S13">
-        <v>0.01379615816721871</v>
+        <v>0.003522721969580392</v>
       </c>
       <c r="T13">
-        <v>0.01379615816721871</v>
+        <v>0.003522721969580391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H14">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>40.317470619356</v>
+        <v>44.09129318694734</v>
       </c>
       <c r="R14">
-        <v>362.857235574204</v>
+        <v>396.821638682526</v>
       </c>
       <c r="S14">
-        <v>0.03463549883884429</v>
+        <v>0.05404441016079044</v>
       </c>
       <c r="T14">
-        <v>0.03463549883884429</v>
+        <v>0.05404441016079043</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H15">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>46.23916426161334</v>
+        <v>73.53853924439333</v>
       </c>
       <c r="R15">
-        <v>416.15247835452</v>
+        <v>661.84685319954</v>
       </c>
       <c r="S15">
-        <v>0.03972264369489905</v>
+        <v>0.09013904311443358</v>
       </c>
       <c r="T15">
-        <v>0.03972264369489905</v>
+        <v>0.09013904311443356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H16">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>5.136789394421332</v>
+        <v>7.962471670951334</v>
       </c>
       <c r="R16">
-        <v>46.231104549792</v>
+        <v>71.66224503856201</v>
       </c>
       <c r="S16">
-        <v>0.004412857760487893</v>
+        <v>0.009759910716475905</v>
       </c>
       <c r="T16">
-        <v>0.004412857760487894</v>
+        <v>0.009759910716475903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H17">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>3.104931064741333</v>
+        <v>1.618093251861333</v>
       </c>
       <c r="R17">
-        <v>27.944379582672</v>
+        <v>14.562839266752</v>
       </c>
       <c r="S17">
-        <v>0.002667350769666358</v>
+        <v>0.00198335973071185</v>
       </c>
       <c r="T17">
-        <v>0.002667350769666358</v>
+        <v>0.00198335973071185</v>
       </c>
     </row>
   </sheetData>
